--- a/Data_this.xlsx
+++ b/Data_this.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NGC78\OneDrive\Involution\Share\Exp_1211\Exp_1211\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62034C1D-F437-460F-B5D4-CFE57B9C7653}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1A7429-CD8B-404B-A4BA-5466BF58D7AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="1160" windowWidth="4760" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -353,7 +353,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -365,10 +365,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EE0554B-57C2-4FC3-BE4C-BAB2BE93BC3E}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:E7"/>
+      <selection activeCell="A10" sqref="A10:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -492,6 +492,57 @@
         <v>3</v>
       </c>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2.5595299478784055</v>
+      </c>
+      <c r="B8">
+        <v>2.8456292951976336</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>2.85674758928146</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2.0497354976649786</v>
+      </c>
+      <c r="B9">
+        <v>1.9006341561095608</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>1.7450227721776792</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0.16120692144373794</v>
+      </c>
+      <c r="B10">
+        <v>1.8619175241832844</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>1.8694675403716781</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
